--- a/USDATAX/NFLX.xlsx
+++ b/USDATAX/NFLX.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="94">
   <si>
     <t>Kalem</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>İşletme Faaliyetlerinden Nakit Akışları</t>
+  </si>
+  <si>
+    <t>FAVÖK</t>
   </si>
 </sst>
 </file>
@@ -654,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV20"/>
+  <dimension ref="A1:BV21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3914,6 +3917,230 @@
       </c>
       <c r="BV20">
         <v>2825174000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:74">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>34201000</v>
+      </c>
+      <c r="G21">
+        <v>34074000</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>36471000</v>
+      </c>
+      <c r="J21">
+        <v>52782000</v>
+      </c>
+      <c r="K21">
+        <v>49337000</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>58345000</v>
+      </c>
+      <c r="N21">
+        <v>77342000</v>
+      </c>
+      <c r="O21">
+        <v>69501000</v>
+      </c>
+      <c r="P21">
+        <v>61872000</v>
+      </c>
+      <c r="Q21">
+        <v>102240000</v>
+      </c>
+      <c r="R21">
+        <v>115114000</v>
+      </c>
+      <c r="S21">
+        <v>96842000</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>-1935000</v>
+      </c>
+      <c r="V21">
+        <v>27201000</v>
+      </c>
+      <c r="W21">
+        <v>27263000</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>43873000</v>
+      </c>
+      <c r="Z21">
+        <v>69143000</v>
+      </c>
+      <c r="AA21">
+        <v>68572000</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>109977000</v>
+      </c>
+      <c r="AD21">
+        <v>142577000</v>
+      </c>
+      <c r="AE21">
+        <v>124764000</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>112623000</v>
+      </c>
+      <c r="AH21">
+        <v>90416000</v>
+      </c>
+      <c r="AI21">
+        <v>89688000</v>
+      </c>
+      <c r="AJ21">
+        <v>153934000</v>
+      </c>
+      <c r="AK21">
+        <v>64251000</v>
+      </c>
+      <c r="AL21">
+        <v>84501000</v>
+      </c>
+      <c r="AM21">
+        <v>120446000</v>
+      </c>
+      <c r="AN21">
+        <v>245303000</v>
+      </c>
+      <c r="AO21">
+        <v>271991000</v>
+      </c>
+      <c r="AP21">
+        <v>146358000</v>
+      </c>
+      <c r="AQ21">
+        <v>227865000</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>465619000</v>
+      </c>
+      <c r="AT21">
+        <v>481949000</v>
+      </c>
+      <c r="AU21">
+        <v>501829000</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>482645000</v>
+      </c>
+      <c r="AX21">
+        <v>731915000</v>
+      </c>
+      <c r="AY21">
+        <v>1006943000</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>986773000</v>
+      </c>
+      <c r="BB21">
+        <v>1384589000</v>
+      </c>
+      <c r="BC21">
+        <v>1343452000</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>1995597000</v>
+      </c>
+      <c r="BF21">
+        <v>1886064000</v>
+      </c>
+      <c r="BG21">
+        <v>1825506000</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>2046228000</v>
+      </c>
+      <c r="BJ21">
+        <v>1661788000</v>
+      </c>
+      <c r="BK21">
+        <v>1618206000</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>1804652000</v>
+      </c>
+      <c r="BN21">
+        <v>1916568000</v>
+      </c>
+      <c r="BO21">
+        <v>2007054000</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>2719768000</v>
+      </c>
+      <c r="BR21">
+        <v>2684064000</v>
+      </c>
+      <c r="BS21">
+        <v>2990391000</v>
+      </c>
+      <c r="BT21">
+        <v>3427066000</v>
+      </c>
+      <c r="BU21">
+        <v>3854707000</v>
+      </c>
+      <c r="BV21">
+        <v>3335573000</v>
       </c>
     </row>
   </sheetData>
@@ -5550,7 +5777,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV8"/>
+  <dimension ref="A1:BV9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6836,6 +7063,230 @@
       </c>
       <c r="BV8">
         <v>11510307000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:74">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>34201000</v>
+      </c>
+      <c r="G9">
+        <v>34074000</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>36471000</v>
+      </c>
+      <c r="J9">
+        <v>52782000</v>
+      </c>
+      <c r="K9">
+        <v>49337000</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>58345000</v>
+      </c>
+      <c r="N9">
+        <v>77342000</v>
+      </c>
+      <c r="O9">
+        <v>69501000</v>
+      </c>
+      <c r="P9">
+        <v>61872000</v>
+      </c>
+      <c r="Q9">
+        <v>102240000</v>
+      </c>
+      <c r="R9">
+        <v>115114000</v>
+      </c>
+      <c r="S9">
+        <v>96842000</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>-1935000</v>
+      </c>
+      <c r="V9">
+        <v>27201000</v>
+      </c>
+      <c r="W9">
+        <v>27263000</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>43873000</v>
+      </c>
+      <c r="Z9">
+        <v>69143000</v>
+      </c>
+      <c r="AA9">
+        <v>68572000</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>109977000</v>
+      </c>
+      <c r="AD9">
+        <v>142577000</v>
+      </c>
+      <c r="AE9">
+        <v>124764000</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>112623000</v>
+      </c>
+      <c r="AH9">
+        <v>90416000</v>
+      </c>
+      <c r="AI9">
+        <v>89688000</v>
+      </c>
+      <c r="AJ9">
+        <v>153934000</v>
+      </c>
+      <c r="AK9">
+        <v>64251000</v>
+      </c>
+      <c r="AL9">
+        <v>84501000</v>
+      </c>
+      <c r="AM9">
+        <v>120446000</v>
+      </c>
+      <c r="AN9">
+        <v>245303000</v>
+      </c>
+      <c r="AO9">
+        <v>271991000</v>
+      </c>
+      <c r="AP9">
+        <v>146358000</v>
+      </c>
+      <c r="AQ9">
+        <v>227865000</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>465619000</v>
+      </c>
+      <c r="AT9">
+        <v>481949000</v>
+      </c>
+      <c r="AU9">
+        <v>501829000</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>482645000</v>
+      </c>
+      <c r="AX9">
+        <v>731915000</v>
+      </c>
+      <c r="AY9">
+        <v>1006943000</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>986773000</v>
+      </c>
+      <c r="BB9">
+        <v>1384589000</v>
+      </c>
+      <c r="BC9">
+        <v>1343452000</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>1995597000</v>
+      </c>
+      <c r="BF9">
+        <v>1886064000</v>
+      </c>
+      <c r="BG9">
+        <v>1825506000</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>2046228000</v>
+      </c>
+      <c r="BJ9">
+        <v>1661788000</v>
+      </c>
+      <c r="BK9">
+        <v>1618206000</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>1804652000</v>
+      </c>
+      <c r="BN9">
+        <v>1916568000</v>
+      </c>
+      <c r="BO9">
+        <v>2007054000</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>2719768000</v>
+      </c>
+      <c r="BR9">
+        <v>2684064000</v>
+      </c>
+      <c r="BS9">
+        <v>2990391000</v>
+      </c>
+      <c r="BT9">
+        <v>3427066000</v>
+      </c>
+      <c r="BU9">
+        <v>3854707000</v>
+      </c>
+      <c r="BV9">
+        <v>3335573000</v>
       </c>
     </row>
   </sheetData>
